--- a/src/test/data/anno_Cell.xlsx
+++ b/src/test/data/anno_Cell.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cell(通常)" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Cell(メソッドにアノテーションを付与)" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>CellProcessor(@XlsCell)のテスト</t>
     <phoneticPr fontId="1"/>
@@ -42,7 +43,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -120,7 +121,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -425,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -469,12 +470,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C7" s="4">
+        <v>12.345000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="5">
+        <v>42133.597222222219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D12" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -491,4 +525,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_Cell.xlsx
+++ b/src/test/data/anno_Cell.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cell(通常)" sheetId="1" r:id="rId1"/>
     <sheet name="Cell(メソッドにアノテーションを付与)" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="数式を指定" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>CellProcessor(@XlsCell)のテスト</t>
     <phoneticPr fontId="1"/>
@@ -37,13 +37,34 @@
     <t>abc</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>数式用の値の定義</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AbCdEfG</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="177" formatCode="0.000;&quot;▲ &quot;0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -113,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -123,6 +144,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -472,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -516,12 +538,116 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="str">
+        <f>UPPER(F4)</f>
+        <v>ABCDEFG</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="2"/>
+      <c r="C7" s="7">
+        <f>SUM(F7:I7)</f>
+        <v>135.14399999999998</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="F7">
+        <v>12.1</v>
+      </c>
+      <c r="G7">
+        <v>45.6</v>
+      </c>
+      <c r="H7">
+        <v>78</v>
+      </c>
+      <c r="I7">
+        <v>-0.55600000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="5">
+        <f>F10-G10</f>
+        <v>7.8333333333284827</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="5">
+        <v>42133.597222222219</v>
+      </c>
+      <c r="G10" s="5">
+        <v>42125.763888888891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4">
+        <f>F12+G12</f>
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/data/anno_Cell.xlsx
+++ b/src/test/data/anno_Cell.xlsx
@@ -1,23 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F0B10F-215D-44F2-ABF1-661C947D0D75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="8385" yWindow="1245" windowWidth="21615" windowHeight="11655" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell(通常)" sheetId="1" r:id="rId1"/>
     <sheet name="Cell(メソッドにアノテーションを付与)" sheetId="4" r:id="rId2"/>
     <sheet name="数式を指定" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="コメント情報" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{399E78E2-5161-4766-8A42-74E81D008669}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>氏名を入力してください。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>CellProcessor(@XlsCell)のテスト</t>
     <phoneticPr fontId="1"/>
@@ -57,16 +90,37 @@
     <t>AbCdEfG</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>コメント情報のマッピング</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田太郎</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション「@XlsCell」のテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="177" formatCode="0.000;&quot;▲ &quot;0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +151,14 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -145,6 +207,8 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -155,12 +219,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -202,7 +269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,9 +302,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,6 +354,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,41 +546,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="24">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="C7" s="4">
         <v>12.345000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="B10" s="5">
         <v>42133.597222222219</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="D12" s="6" t="s">
         <v>2</v>
       </c>
@@ -491,41 +592,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="24">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="C7" s="4">
         <v>12.345000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="B10" s="5">
         <v>42133.597222222219</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="D12" s="6" t="s">
         <v>2</v>
       </c>
@@ -537,14 +638,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
@@ -553,17 +654,17 @@
     <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="F3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" s="3" t="str">
         <f>UPPER(F4)</f>
         <v>ABCDEFG</v>
@@ -574,17 +675,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="B7" s="2"/>
       <c r="C7" s="7">
         <f>SUM(F7:I7)</f>
@@ -604,17 +705,17 @@
         <v>-0.55600000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="B10" s="5">
         <f>F10-G10</f>
         <v>7.8333333333284827</v>
@@ -628,12 +729,12 @@
         <v>42125.763888888891</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4">
@@ -654,14 +755,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A463CE-8587-46CA-9484-D0A26155FC5B}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>